--- a/tabular/Asia/Asian_SEA4_miss.xlsx
+++ b/tabular/Asia/Asian_SEA4_miss.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kathr\Dropbox\GLUE\Whole clades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/general/NCBI-RABV-GLUE/tabular/Asia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D112E14E-B847-46D5-B603-29645D5B96DF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0294DB-39B9-874C-96E6-5D49F5EA216F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1493,34 +1493,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI78"/>
+  <dimension ref="A1:AH78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="71" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="V29" sqref="A1:AH78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="18" max="18" width="14.42578125" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" customWidth="1"/>
-    <col min="22" max="22" width="21.140625" customWidth="1"/>
-    <col min="23" max="23" width="23.85546875" customWidth="1"/>
-    <col min="24" max="24" width="23.7109375" customWidth="1"/>
-    <col min="25" max="25" width="26.42578125" customWidth="1"/>
-    <col min="26" max="26" width="22" customWidth="1"/>
-    <col min="27" max="27" width="24.7109375" customWidth="1"/>
-    <col min="28" max="28" width="11.5703125" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" customWidth="1"/>
-    <col min="30" max="30" width="19.85546875" customWidth="1"/>
-    <col min="31" max="31" width="15.28515625" customWidth="1"/>
-    <col min="32" max="32" width="10" customWidth="1"/>
-    <col min="33" max="33" width="17" customWidth="1"/>
-    <col min="34" max="34" width="17.85546875" customWidth="1"/>
+    <col min="17" max="17" width="14.5" customWidth="1"/>
+    <col min="18" max="18" width="17.5" customWidth="1"/>
+    <col min="19" max="19" width="12.5" customWidth="1"/>
+    <col min="20" max="20" width="15.1640625" customWidth="1"/>
+    <col min="21" max="21" width="21.1640625" customWidth="1"/>
+    <col min="22" max="22" width="23.83203125" customWidth="1"/>
+    <col min="23" max="23" width="23.6640625" customWidth="1"/>
+    <col min="24" max="24" width="26.5" customWidth="1"/>
+    <col min="25" max="25" width="22" customWidth="1"/>
+    <col min="26" max="26" width="24.6640625" customWidth="1"/>
+    <col min="27" max="27" width="11.5" customWidth="1"/>
+    <col min="28" max="28" width="14.33203125" customWidth="1"/>
+    <col min="29" max="29" width="19.83203125" customWidth="1"/>
+    <col min="30" max="30" width="15.33203125" customWidth="1"/>
+    <col min="31" max="31" width="10" customWidth="1"/>
+    <col min="32" max="32" width="17" customWidth="1"/>
+    <col min="33" max="33" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1566,59 +1566,59 @@
       <c r="P1" t="s">
         <v>14</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="R1" s="1" t="s">
-        <v>15</v>
+        <v>282</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>282</v>
+        <v>16</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>16</v>
+        <v>283</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>289</v>
+        <v>17</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>291</v>
       </c>
+      <c r="AD1" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="AE1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AG1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1667,60 +1667,60 @@
       <c r="P2" t="s">
         <v>207</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>179</v>
       </c>
+      <c r="R2" s="6" t="s">
+        <v>311</v>
+      </c>
       <c r="S2" s="6" t="s">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>175</v>
+        <v>312</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>312</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z2" s="6">
-        <v>2001</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB2" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>2001</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA2" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="AC2" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD2" s="6"/>
+      <c r="AB2" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6" t="s">
+        <v>299</v>
+      </c>
       <c r="AE2" s="6" t="s">
         <v>299</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH2" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI2" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1769,60 +1769,60 @@
       <c r="P3" t="s">
         <v>208</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>179</v>
       </c>
+      <c r="R3" s="10" t="s">
+        <v>311</v>
+      </c>
       <c r="S3" s="10" t="s">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>175</v>
+        <v>312</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y3" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z3" s="10">
-        <v>2001</v>
-      </c>
-      <c r="AA3" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB3" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y3" s="10">
+        <v>2001</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA3" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC3" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD3" s="10"/>
+      <c r="AB3" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE3" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF3" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG3" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH3" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG3" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1871,60 +1871,60 @@
       <c r="P4" t="s">
         <v>209</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="Q4" s="9" t="s">
         <v>179</v>
       </c>
+      <c r="R4" s="13" t="s">
+        <v>311</v>
+      </c>
       <c r="S4" s="13" t="s">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="T4" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="U4" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>175</v>
+        <v>312</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="W4" s="13" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X4" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y4" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z4" s="13">
-        <v>2001</v>
-      </c>
-      <c r="AA4" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB4" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y4" s="13">
+        <v>2001</v>
+      </c>
+      <c r="Z4" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA4" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC4" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD4" s="13"/>
+      <c r="AB4" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE4" s="13" t="s">
         <v>299</v>
       </c>
       <c r="AF4" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG4" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH4" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG4" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH4" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1973,60 +1973,60 @@
       <c r="P5" t="s">
         <v>210</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="Q5" s="9" t="s">
         <v>179</v>
       </c>
+      <c r="R5" s="10" t="s">
+        <v>311</v>
+      </c>
       <c r="S5" s="10" t="s">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="U5" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="V5" s="11" t="s">
-        <v>175</v>
+        <v>312</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X5" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y5" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z5" s="10">
-        <v>2001</v>
-      </c>
-      <c r="AA5" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB5" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>2001</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA5" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC5" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD5" s="10"/>
+      <c r="AB5" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE5" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF5" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG5" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH5" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI5" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG5" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH5" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -2075,60 +2075,60 @@
       <c r="P6" t="s">
         <v>211</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="Q6" s="9" t="s">
         <v>179</v>
       </c>
+      <c r="R6" s="13" t="s">
+        <v>311</v>
+      </c>
       <c r="S6" s="13" t="s">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="T6" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="U6" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="V6" s="11" t="s">
-        <v>175</v>
+        <v>312</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="W6" s="13" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X6" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y6" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z6" s="13">
-        <v>2001</v>
-      </c>
-      <c r="AA6" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB6" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y6" s="13">
+        <v>2001</v>
+      </c>
+      <c r="Z6" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA6" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC6" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD6" s="13"/>
+      <c r="AB6" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE6" s="13" t="s">
         <v>299</v>
       </c>
       <c r="AF6" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG6" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH6" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG6" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH6" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2177,60 +2177,60 @@
       <c r="P7" t="s">
         <v>212</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="Q7" s="9" t="s">
         <v>179</v>
       </c>
+      <c r="R7" s="10" t="s">
+        <v>311</v>
+      </c>
       <c r="S7" s="10" t="s">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="U7" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="V7" s="11" t="s">
-        <v>175</v>
+        <v>312</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="W7" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X7" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y7" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z7" s="10">
-        <v>2001</v>
-      </c>
-      <c r="AA7" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB7" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>2001</v>
+      </c>
+      <c r="Z7" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA7" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC7" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD7" s="10"/>
+      <c r="AB7" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE7" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF7" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG7" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH7" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI7" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG7" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH7" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2279,60 +2279,60 @@
       <c r="P8" t="s">
         <v>213</v>
       </c>
-      <c r="R8" s="9" t="s">
+      <c r="Q8" s="9" t="s">
         <v>179</v>
       </c>
+      <c r="R8" s="13" t="s">
+        <v>311</v>
+      </c>
       <c r="S8" s="13" t="s">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="T8" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="U8" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="V8" s="11" t="s">
-        <v>175</v>
+        <v>312</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V8" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="W8" s="13" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X8" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y8" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z8" s="13">
-        <v>2001</v>
-      </c>
-      <c r="AA8" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB8" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y8" s="13">
+        <v>2001</v>
+      </c>
+      <c r="Z8" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA8" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC8" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD8" s="13"/>
+      <c r="AB8" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE8" s="13" t="s">
         <v>299</v>
       </c>
       <c r="AF8" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG8" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH8" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI8" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG8" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH8" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2381,60 +2381,60 @@
       <c r="P9" t="s">
         <v>214</v>
       </c>
-      <c r="R9" s="9" t="s">
+      <c r="Q9" s="9" t="s">
         <v>179</v>
       </c>
+      <c r="R9" s="10" t="s">
+        <v>311</v>
+      </c>
       <c r="S9" s="10" t="s">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="U9" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="V9" s="11" t="s">
-        <v>175</v>
+        <v>312</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X9" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y9" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z9" s="10">
-        <v>2001</v>
-      </c>
-      <c r="AA9" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB9" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>2001</v>
+      </c>
+      <c r="Z9" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA9" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC9" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD9" s="10"/>
+      <c r="AB9" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE9" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF9" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG9" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH9" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI9" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG9" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH9" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -2483,60 +2483,60 @@
       <c r="P10" t="s">
         <v>215</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="Q10" s="9" t="s">
         <v>179</v>
       </c>
+      <c r="R10" s="13" t="s">
+        <v>311</v>
+      </c>
       <c r="S10" s="13" t="s">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="T10" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="U10" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="V10" s="11" t="s">
-        <v>175</v>
+        <v>312</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V10" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="W10" s="13" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X10" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y10" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z10" s="13">
-        <v>2001</v>
-      </c>
-      <c r="AA10" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB10" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y10" s="13">
+        <v>2001</v>
+      </c>
+      <c r="Z10" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA10" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC10" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD10" s="13"/>
+      <c r="AB10" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE10" s="13" t="s">
         <v>299</v>
       </c>
       <c r="AF10" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG10" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH10" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI10" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG10" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH10" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -2585,60 +2585,60 @@
       <c r="P11" t="s">
         <v>216</v>
       </c>
-      <c r="R11" s="9" t="s">
+      <c r="Q11" s="9" t="s">
         <v>179</v>
       </c>
+      <c r="R11" s="10" t="s">
+        <v>311</v>
+      </c>
       <c r="S11" s="10" t="s">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="T11" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="U11" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="V11" s="11" t="s">
-        <v>175</v>
+        <v>312</v>
+      </c>
+      <c r="U11" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V11" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X11" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y11" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z11" s="10">
-        <v>2001</v>
-      </c>
-      <c r="AA11" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB11" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y11" s="10">
+        <v>2001</v>
+      </c>
+      <c r="Z11" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA11" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC11" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD11" s="10"/>
+      <c r="AB11" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE11" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF11" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG11" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH11" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI11" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG11" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH11" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -2687,60 +2687,60 @@
       <c r="P12" t="s">
         <v>217</v>
       </c>
-      <c r="R12" s="9" t="s">
+      <c r="Q12" s="9" t="s">
         <v>179</v>
       </c>
+      <c r="R12" s="13" t="s">
+        <v>311</v>
+      </c>
       <c r="S12" s="13" t="s">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="T12" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="U12" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="V12" s="11" t="s">
-        <v>175</v>
+        <v>312</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V12" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="W12" s="13" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X12" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y12" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z12" s="13">
-        <v>2001</v>
-      </c>
-      <c r="AA12" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB12" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>2001</v>
+      </c>
+      <c r="Z12" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA12" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC12" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD12" s="13"/>
+      <c r="AB12" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE12" s="13" t="s">
         <v>299</v>
       </c>
       <c r="AF12" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG12" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH12" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI12" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG12" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH12" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -2789,60 +2789,60 @@
       <c r="P13" t="s">
         <v>218</v>
       </c>
-      <c r="R13" s="9" t="s">
+      <c r="Q13" s="9" t="s">
         <v>179</v>
       </c>
+      <c r="R13" s="10" t="s">
+        <v>311</v>
+      </c>
       <c r="S13" s="10" t="s">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="U13" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="V13" s="11" t="s">
-        <v>175</v>
+        <v>312</v>
+      </c>
+      <c r="U13" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V13" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="W13" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X13" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y13" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z13" s="10">
-        <v>2001</v>
-      </c>
-      <c r="AA13" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB13" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y13" s="10">
+        <v>2001</v>
+      </c>
+      <c r="Z13" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA13" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC13" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD13" s="10"/>
+      <c r="AB13" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE13" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF13" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG13" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH13" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI13" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG13" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH13" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -2891,60 +2891,60 @@
       <c r="P14" t="s">
         <v>219</v>
       </c>
-      <c r="R14" s="9" t="s">
+      <c r="Q14" s="9" t="s">
         <v>179</v>
       </c>
+      <c r="R14" s="13" t="s">
+        <v>311</v>
+      </c>
       <c r="S14" s="13" t="s">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="T14" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="U14" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="V14" s="11" t="s">
-        <v>175</v>
+        <v>312</v>
+      </c>
+      <c r="U14" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V14" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="W14" s="13" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X14" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y14" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z14" s="13">
-        <v>2001</v>
-      </c>
-      <c r="AA14" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB14" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y14" s="13">
+        <v>2001</v>
+      </c>
+      <c r="Z14" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA14" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC14" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD14" s="13"/>
+      <c r="AB14" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE14" s="13" t="s">
         <v>299</v>
       </c>
       <c r="AF14" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG14" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH14" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI14" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG14" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH14" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -2993,60 +2993,60 @@
       <c r="P15" t="s">
         <v>220</v>
       </c>
-      <c r="R15" s="9" t="s">
+      <c r="Q15" s="9" t="s">
         <v>179</v>
       </c>
+      <c r="R15" s="10" t="s">
+        <v>311</v>
+      </c>
       <c r="S15" s="10" t="s">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="U15" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="V15" s="11" t="s">
-        <v>175</v>
+        <v>312</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V15" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="W15" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X15" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y15" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z15" s="10">
-        <v>2001</v>
-      </c>
-      <c r="AA15" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB15" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y15" s="10">
+        <v>2001</v>
+      </c>
+      <c r="Z15" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA15" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC15" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD15" s="10"/>
+      <c r="AB15" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE15" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF15" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG15" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH15" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI15" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG15" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH15" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -3095,60 +3095,60 @@
       <c r="P16" t="s">
         <v>221</v>
       </c>
-      <c r="R16" s="9" t="s">
+      <c r="Q16" s="9" t="s">
         <v>179</v>
       </c>
+      <c r="R16" s="13" t="s">
+        <v>311</v>
+      </c>
       <c r="S16" s="13" t="s">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="T16" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="U16" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="V16" s="11" t="s">
-        <v>175</v>
+        <v>312</v>
+      </c>
+      <c r="U16" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V16" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="W16" s="13" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X16" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y16" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z16" s="13">
-        <v>2001</v>
-      </c>
-      <c r="AA16" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB16" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>2001</v>
+      </c>
+      <c r="Z16" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA16" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC16" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD16" s="13"/>
+      <c r="AB16" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE16" s="13" t="s">
         <v>299</v>
       </c>
       <c r="AF16" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG16" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH16" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI16" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG16" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH16" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -3197,60 +3197,60 @@
       <c r="P17" t="s">
         <v>222</v>
       </c>
-      <c r="R17" s="9" t="s">
+      <c r="Q17" s="9" t="s">
         <v>179</v>
       </c>
+      <c r="R17" s="10" t="s">
+        <v>311</v>
+      </c>
       <c r="S17" s="10" t="s">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="U17" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="V17" s="11" t="s">
-        <v>175</v>
+        <v>312</v>
+      </c>
+      <c r="U17" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V17" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="W17" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X17" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y17" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z17" s="10">
-        <v>2001</v>
-      </c>
-      <c r="AA17" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB17" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y17" s="10">
+        <v>2001</v>
+      </c>
+      <c r="Z17" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA17" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC17" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD17" s="10"/>
+      <c r="AB17" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE17" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF17" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG17" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH17" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI17" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG17" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH17" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -3299,60 +3299,60 @@
       <c r="P18" t="s">
         <v>223</v>
       </c>
-      <c r="R18" s="9" t="s">
+      <c r="Q18" s="9" t="s">
         <v>179</v>
       </c>
+      <c r="R18" s="13" t="s">
+        <v>311</v>
+      </c>
       <c r="S18" s="13" t="s">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="T18" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="U18" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="V18" s="11" t="s">
-        <v>175</v>
+        <v>312</v>
+      </c>
+      <c r="U18" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V18" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="W18" s="13" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X18" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y18" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z18" s="13">
-        <v>2001</v>
-      </c>
-      <c r="AA18" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB18" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y18" s="13">
+        <v>2001</v>
+      </c>
+      <c r="Z18" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA18" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC18" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD18" s="13"/>
+      <c r="AB18" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE18" s="13" t="s">
         <v>299</v>
       </c>
       <c r="AF18" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG18" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH18" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI18" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG18" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH18" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -3401,60 +3401,60 @@
       <c r="P19" t="s">
         <v>224</v>
       </c>
-      <c r="R19" s="9" t="s">
+      <c r="Q19" s="9" t="s">
         <v>179</v>
       </c>
+      <c r="R19" s="10" t="s">
+        <v>311</v>
+      </c>
       <c r="S19" s="10" t="s">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="T19" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="U19" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="V19" s="11" t="s">
-        <v>175</v>
+        <v>312</v>
+      </c>
+      <c r="U19" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V19" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="W19" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X19" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y19" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z19" s="10">
-        <v>2001</v>
-      </c>
-      <c r="AA19" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB19" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y19" s="10">
+        <v>2001</v>
+      </c>
+      <c r="Z19" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA19" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC19" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD19" s="10"/>
+      <c r="AB19" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE19" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF19" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG19" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH19" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI19" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG19" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH19" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -3503,60 +3503,60 @@
       <c r="P20" t="s">
         <v>225</v>
       </c>
-      <c r="R20" s="9" t="s">
+      <c r="Q20" s="9" t="s">
         <v>179</v>
       </c>
+      <c r="R20" s="13" t="s">
+        <v>311</v>
+      </c>
       <c r="S20" s="13" t="s">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="T20" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="U20" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="V20" s="11" t="s">
-        <v>175</v>
+        <v>312</v>
+      </c>
+      <c r="U20" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V20" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="W20" s="13" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X20" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y20" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z20" s="13">
-        <v>2001</v>
-      </c>
-      <c r="AA20" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB20" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y20" s="13">
+        <v>2001</v>
+      </c>
+      <c r="Z20" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA20" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC20" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD20" s="13"/>
+      <c r="AB20" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE20" s="13" t="s">
         <v>299</v>
       </c>
       <c r="AF20" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG20" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH20" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI20" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG20" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH20" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -3605,60 +3605,60 @@
       <c r="P21" t="s">
         <v>226</v>
       </c>
-      <c r="R21" s="9" t="s">
+      <c r="Q21" s="9" t="s">
         <v>179</v>
       </c>
+      <c r="R21" s="10" t="s">
+        <v>311</v>
+      </c>
       <c r="S21" s="10" t="s">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="T21" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="U21" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="V21" s="11" t="s">
-        <v>175</v>
+        <v>312</v>
+      </c>
+      <c r="U21" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V21" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="W21" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X21" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y21" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z21" s="10">
-        <v>2001</v>
-      </c>
-      <c r="AA21" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB21" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y21" s="10">
+        <v>2001</v>
+      </c>
+      <c r="Z21" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA21" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC21" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD21" s="10"/>
+      <c r="AB21" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE21" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF21" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG21" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH21" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI21" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG21" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH21" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -3707,60 +3707,60 @@
       <c r="P22" t="s">
         <v>227</v>
       </c>
-      <c r="R22" s="9" t="s">
+      <c r="Q22" s="9" t="s">
         <v>179</v>
       </c>
+      <c r="R22" s="13" t="s">
+        <v>311</v>
+      </c>
       <c r="S22" s="13" t="s">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="T22" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="U22" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="V22" s="11" t="s">
-        <v>175</v>
+        <v>312</v>
+      </c>
+      <c r="U22" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V22" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="W22" s="13" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X22" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y22" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z22" s="13">
-        <v>2001</v>
-      </c>
-      <c r="AA22" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB22" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y22" s="13">
+        <v>2001</v>
+      </c>
+      <c r="Z22" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA22" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC22" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD22" s="13"/>
+      <c r="AB22" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE22" s="13" t="s">
         <v>299</v>
       </c>
       <c r="AF22" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG22" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH22" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI22" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG22" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH22" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -3809,60 +3809,60 @@
       <c r="P23" t="s">
         <v>228</v>
       </c>
-      <c r="R23" s="9" t="s">
+      <c r="Q23" s="9" t="s">
         <v>179</v>
       </c>
+      <c r="R23" s="10" t="s">
+        <v>311</v>
+      </c>
       <c r="S23" s="10" t="s">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="T23" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="U23" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="V23" s="11" t="s">
-        <v>175</v>
+        <v>312</v>
+      </c>
+      <c r="U23" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V23" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="W23" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X23" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y23" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z23" s="10">
-        <v>2001</v>
-      </c>
-      <c r="AA23" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB23" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y23" s="10">
+        <v>2001</v>
+      </c>
+      <c r="Z23" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA23" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC23" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD23" s="10"/>
+      <c r="AB23" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE23" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF23" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG23" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH23" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI23" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG23" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH23" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -3911,60 +3911,60 @@
       <c r="P24" t="s">
         <v>229</v>
       </c>
-      <c r="R24" s="9" t="s">
+      <c r="Q24" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S24" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="T24" s="9" t="s">
+      <c r="R24" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="S24" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U24" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="V24" s="11" t="s">
-        <v>175</v>
+      <c r="T24" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="U24" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V24" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="W24" s="13" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X24" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y24" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z24" s="13">
-        <v>2001</v>
-      </c>
-      <c r="AA24" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB24" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y24" s="13">
+        <v>2001</v>
+      </c>
+      <c r="Z24" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA24" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC24" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD24" s="13"/>
+      <c r="AB24" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE24" s="13" t="s">
         <v>299</v>
       </c>
       <c r="AF24" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG24" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH24" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI24" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG24" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH24" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -4013,60 +4013,60 @@
       <c r="P25" t="s">
         <v>230</v>
       </c>
-      <c r="R25" s="9" t="s">
+      <c r="Q25" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S25" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="T25" s="9" t="s">
+      <c r="R25" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="S25" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U25" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="V25" s="11" t="s">
-        <v>175</v>
+      <c r="T25" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="U25" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V25" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="W25" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X25" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y25" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z25" s="10">
-        <v>2001</v>
-      </c>
-      <c r="AA25" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB25" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y25" s="10">
+        <v>2001</v>
+      </c>
+      <c r="Z25" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA25" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC25" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD25" s="10"/>
+      <c r="AB25" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE25" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF25" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG25" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH25" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI25" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG25" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH25" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -4115,60 +4115,60 @@
       <c r="P26" t="s">
         <v>231</v>
       </c>
-      <c r="R26" s="9" t="s">
+      <c r="Q26" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S26" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="T26" s="9" t="s">
+      <c r="R26" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="S26" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U26" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="V26" s="11" t="s">
-        <v>175</v>
+      <c r="T26" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="U26" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V26" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="W26" s="13" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X26" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y26" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z26" s="13">
-        <v>2001</v>
-      </c>
-      <c r="AA26" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB26" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y26" s="13">
+        <v>2001</v>
+      </c>
+      <c r="Z26" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA26" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC26" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD26" s="13"/>
+      <c r="AB26" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE26" s="13" t="s">
         <v>299</v>
       </c>
       <c r="AF26" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG26" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH26" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI26" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG26" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH26" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -4217,60 +4217,60 @@
       <c r="P27" t="s">
         <v>232</v>
       </c>
-      <c r="R27" s="9" t="s">
+      <c r="Q27" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S27" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="T27" s="9" t="s">
+      <c r="R27" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="S27" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U27" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="V27" s="11" t="s">
-        <v>175</v>
+      <c r="T27" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="U27" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V27" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="W27" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X27" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y27" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z27" s="10">
-        <v>2001</v>
-      </c>
-      <c r="AA27" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB27" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y27" s="10">
+        <v>2001</v>
+      </c>
+      <c r="Z27" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA27" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC27" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD27" s="10"/>
+      <c r="AB27" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE27" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF27" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG27" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH27" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI27" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG27" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH27" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -4319,60 +4319,60 @@
       <c r="P28" t="s">
         <v>233</v>
       </c>
-      <c r="R28" s="9" t="s">
+      <c r="Q28" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S28" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="T28" s="9" t="s">
+      <c r="R28" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="S28" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U28" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="V28" s="11" t="s">
-        <v>175</v>
+      <c r="T28" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="U28" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V28" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="W28" s="13" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X28" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y28" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z28" s="13">
-        <v>2001</v>
-      </c>
-      <c r="AA28" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB28" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y28" s="13">
+        <v>2001</v>
+      </c>
+      <c r="Z28" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA28" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC28" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD28" s="13"/>
+      <c r="AB28" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE28" s="13" t="s">
         <v>299</v>
       </c>
       <c r="AF28" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG28" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH28" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI28" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG28" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH28" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -4421,60 +4421,60 @@
       <c r="P29" t="s">
         <v>234</v>
       </c>
-      <c r="R29" s="9" t="s">
+      <c r="Q29" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S29" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="T29" s="9" t="s">
+      <c r="R29" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="S29" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U29" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="V29" s="11" t="s">
-        <v>175</v>
+      <c r="T29" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="U29" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V29" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="W29" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X29" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y29" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z29" s="10">
-        <v>2001</v>
-      </c>
-      <c r="AA29" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB29" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y29" s="10">
+        <v>2001</v>
+      </c>
+      <c r="Z29" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA29" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC29" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD29" s="10"/>
+      <c r="AB29" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE29" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF29" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG29" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH29" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI29" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG29" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH29" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -4523,60 +4523,60 @@
       <c r="P30" t="s">
         <v>235</v>
       </c>
-      <c r="R30" s="9" t="s">
+      <c r="Q30" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S30" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="T30" s="9" t="s">
+      <c r="R30" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="S30" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U30" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="V30" s="11" t="s">
-        <v>175</v>
+      <c r="T30" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="U30" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V30" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="W30" s="13" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X30" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y30" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z30" s="13">
-        <v>2001</v>
-      </c>
-      <c r="AA30" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB30" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y30" s="13">
+        <v>2001</v>
+      </c>
+      <c r="Z30" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA30" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC30" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD30" s="13"/>
+      <c r="AB30" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE30" s="13" t="s">
         <v>299</v>
       </c>
       <c r="AF30" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG30" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH30" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI30" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG30" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH30" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -4625,60 +4625,60 @@
       <c r="P31" t="s">
         <v>236</v>
       </c>
-      <c r="R31" s="9" t="s">
+      <c r="Q31" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S31" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="T31" s="9" t="s">
+      <c r="R31" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="S31" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U31" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="V31" s="11" t="s">
-        <v>175</v>
+      <c r="T31" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="U31" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V31" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="W31" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X31" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y31" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z31" s="10">
-        <v>2001</v>
-      </c>
-      <c r="AA31" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB31" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y31" s="10">
+        <v>2001</v>
+      </c>
+      <c r="Z31" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA31" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC31" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD31" s="10"/>
+      <c r="AB31" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE31" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF31" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG31" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH31" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI31" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG31" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH31" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -4727,60 +4727,60 @@
       <c r="P32" t="s">
         <v>237</v>
       </c>
-      <c r="R32" s="9" t="s">
+      <c r="Q32" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S32" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="T32" s="9" t="s">
+      <c r="R32" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="S32" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U32" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="V32" s="11" t="s">
-        <v>175</v>
+      <c r="T32" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="U32" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V32" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="W32" s="13" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X32" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y32" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z32" s="13">
-        <v>2001</v>
-      </c>
-      <c r="AA32" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB32" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y32" s="13">
+        <v>2001</v>
+      </c>
+      <c r="Z32" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA32" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC32" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD32" s="13"/>
+      <c r="AB32" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE32" s="13" t="s">
         <v>299</v>
       </c>
       <c r="AF32" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG32" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH32" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI32" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG32" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH32" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -4829,60 +4829,60 @@
       <c r="P33" t="s">
         <v>238</v>
       </c>
-      <c r="R33" s="9" t="s">
+      <c r="Q33" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S33" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="T33" s="9" t="s">
+      <c r="R33" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="S33" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U33" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="V33" s="11" t="s">
-        <v>175</v>
+      <c r="T33" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="U33" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V33" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="W33" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X33" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y33" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z33" s="10">
-        <v>2001</v>
-      </c>
-      <c r="AA33" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB33" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y33" s="10">
+        <v>2001</v>
+      </c>
+      <c r="Z33" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA33" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC33" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD33" s="10"/>
+      <c r="AB33" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE33" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF33" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG33" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH33" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI33" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG33" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH33" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -4931,60 +4931,60 @@
       <c r="P34" t="s">
         <v>239</v>
       </c>
-      <c r="R34" s="9" t="s">
+      <c r="Q34" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S34" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="T34" s="9" t="s">
+      <c r="R34" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="S34" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U34" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="V34" s="11" t="s">
-        <v>175</v>
+      <c r="T34" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="U34" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V34" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="W34" s="13" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X34" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y34" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z34" s="13">
-        <v>2001</v>
-      </c>
-      <c r="AA34" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB34" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y34" s="13">
+        <v>2001</v>
+      </c>
+      <c r="Z34" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA34" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC34" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD34" s="13"/>
+      <c r="AB34" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC34" s="13"/>
+      <c r="AD34" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE34" s="13" t="s">
         <v>299</v>
       </c>
       <c r="AF34" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG34" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH34" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI34" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG34" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH34" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -5033,60 +5033,60 @@
       <c r="P35" t="s">
         <v>240</v>
       </c>
-      <c r="R35" s="9" t="s">
+      <c r="Q35" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S35" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="T35" s="9" t="s">
+      <c r="R35" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="S35" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U35" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="V35" s="11" t="s">
-        <v>175</v>
+      <c r="T35" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="U35" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V35" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="W35" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X35" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y35" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z35" s="10">
-        <v>2001</v>
-      </c>
-      <c r="AA35" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB35" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y35" s="10">
+        <v>2001</v>
+      </c>
+      <c r="Z35" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA35" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC35" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD35" s="10"/>
+      <c r="AB35" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE35" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF35" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG35" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH35" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI35" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG35" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH35" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -5135,60 +5135,60 @@
       <c r="P36" t="s">
         <v>241</v>
       </c>
-      <c r="R36" s="9" t="s">
+      <c r="Q36" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S36" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="T36" s="9" t="s">
+      <c r="R36" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="S36" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U36" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="V36" s="11" t="s">
-        <v>175</v>
+      <c r="T36" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="U36" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V36" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y36" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z36" s="13">
-        <v>2001</v>
-      </c>
-      <c r="AA36" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB36" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y36" s="13">
+        <v>2001</v>
+      </c>
+      <c r="Z36" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA36" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC36" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD36" s="13"/>
+      <c r="AB36" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC36" s="13"/>
+      <c r="AD36" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE36" s="13" t="s">
         <v>299</v>
       </c>
       <c r="AF36" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG36" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH36" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI36" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG36" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH36" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -5237,60 +5237,60 @@
       <c r="P37" t="s">
         <v>242</v>
       </c>
-      <c r="R37" s="9" t="s">
+      <c r="Q37" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S37" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="T37" s="9" t="s">
+      <c r="R37" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="S37" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U37" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="V37" s="11" t="s">
-        <v>175</v>
+      <c r="T37" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="U37" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V37" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="W37" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X37" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y37" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z37" s="10">
-        <v>2001</v>
-      </c>
-      <c r="AA37" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB37" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y37" s="10">
+        <v>2001</v>
+      </c>
+      <c r="Z37" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA37" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC37" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD37" s="10"/>
+      <c r="AB37" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE37" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF37" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG37" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH37" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI37" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG37" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH37" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -5339,60 +5339,60 @@
       <c r="P38" t="s">
         <v>243</v>
       </c>
-      <c r="R38" s="9" t="s">
+      <c r="Q38" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S38" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="T38" s="9" t="s">
+      <c r="R38" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="S38" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U38" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="V38" s="11" t="s">
-        <v>175</v>
+      <c r="T38" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="U38" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V38" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="W38" s="13" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X38" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y38" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z38" s="13">
-        <v>2001</v>
-      </c>
-      <c r="AA38" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB38" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y38" s="13">
+        <v>2001</v>
+      </c>
+      <c r="Z38" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA38" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC38" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD38" s="13"/>
+      <c r="AB38" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC38" s="13"/>
+      <c r="AD38" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE38" s="13" t="s">
         <v>299</v>
       </c>
       <c r="AF38" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG38" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH38" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI38" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG38" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH38" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -5441,60 +5441,60 @@
       <c r="P39" t="s">
         <v>244</v>
       </c>
-      <c r="R39" s="9" t="s">
+      <c r="Q39" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S39" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="T39" s="9" t="s">
+      <c r="R39" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="S39" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U39" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="V39" s="11" t="s">
-        <v>175</v>
+      <c r="T39" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="U39" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V39" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="W39" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X39" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y39" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z39" s="10">
-        <v>2001</v>
-      </c>
-      <c r="AA39" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB39" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y39" s="10">
+        <v>2001</v>
+      </c>
+      <c r="Z39" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA39" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC39" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD39" s="10"/>
+      <c r="AB39" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE39" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF39" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG39" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH39" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI39" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG39" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH39" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -5543,60 +5543,60 @@
       <c r="P40" t="s">
         <v>245</v>
       </c>
-      <c r="R40" s="9" t="s">
+      <c r="Q40" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S40" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="T40" s="9" t="s">
+      <c r="R40" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="S40" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U40" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="V40" s="11" t="s">
-        <v>175</v>
+      <c r="T40" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="U40" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V40" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="W40" s="13" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X40" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y40" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z40" s="13">
-        <v>2001</v>
-      </c>
-      <c r="AA40" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB40" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y40" s="13">
+        <v>2001</v>
+      </c>
+      <c r="Z40" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA40" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC40" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD40" s="13"/>
+      <c r="AB40" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC40" s="13"/>
+      <c r="AD40" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE40" s="13" t="s">
         <v>299</v>
       </c>
       <c r="AF40" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG40" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH40" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI40" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG40" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH40" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -5645,60 +5645,60 @@
       <c r="P41" t="s">
         <v>246</v>
       </c>
-      <c r="R41" s="9" t="s">
+      <c r="Q41" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S41" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="T41" s="9" t="s">
+      <c r="R41" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="S41" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U41" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="V41" s="11" t="s">
-        <v>175</v>
+      <c r="T41" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="U41" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V41" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="W41" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X41" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y41" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z41" s="10">
-        <v>2001</v>
-      </c>
-      <c r="AA41" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB41" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y41" s="10">
+        <v>2001</v>
+      </c>
+      <c r="Z41" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA41" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC41" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD41" s="10"/>
+      <c r="AB41" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE41" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF41" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG41" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH41" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI41" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG41" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH41" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -5747,60 +5747,60 @@
       <c r="P42" t="s">
         <v>247</v>
       </c>
-      <c r="R42" s="9" t="s">
+      <c r="Q42" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S42" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="T42" s="9" t="s">
+      <c r="R42" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="S42" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U42" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="V42" s="11" t="s">
-        <v>175</v>
+      <c r="T42" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="U42" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V42" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="W42" s="13" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X42" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y42" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z42" s="13">
-        <v>2001</v>
-      </c>
-      <c r="AA42" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB42" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y42" s="13">
+        <v>2001</v>
+      </c>
+      <c r="Z42" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA42" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC42" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD42" s="13"/>
+      <c r="AB42" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC42" s="13"/>
+      <c r="AD42" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE42" s="13" t="s">
         <v>299</v>
       </c>
       <c r="AF42" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG42" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH42" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI42" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG42" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH42" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -5849,60 +5849,60 @@
       <c r="P43" t="s">
         <v>248</v>
       </c>
-      <c r="R43" s="9" t="s">
+      <c r="Q43" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S43" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="T43" s="9" t="s">
+      <c r="R43" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="S43" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U43" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="V43" s="11" t="s">
-        <v>175</v>
+      <c r="T43" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="U43" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V43" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="W43" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X43" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y43" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z43" s="10">
-        <v>2001</v>
-      </c>
-      <c r="AA43" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB43" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y43" s="10">
+        <v>2001</v>
+      </c>
+      <c r="Z43" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA43" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC43" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD43" s="10"/>
+      <c r="AB43" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE43" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF43" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG43" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH43" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI43" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG43" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH43" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -5951,60 +5951,60 @@
       <c r="P44" t="s">
         <v>249</v>
       </c>
-      <c r="R44" s="9" t="s">
+      <c r="Q44" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S44" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="T44" s="9" t="s">
+      <c r="R44" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="S44" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U44" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="V44" s="11" t="s">
-        <v>175</v>
+      <c r="T44" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="U44" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V44" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="W44" s="13" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X44" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y44" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z44" s="13">
-        <v>2001</v>
-      </c>
-      <c r="AA44" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB44" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y44" s="13">
+        <v>2001</v>
+      </c>
+      <c r="Z44" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA44" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC44" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD44" s="13"/>
+      <c r="AB44" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC44" s="13"/>
+      <c r="AD44" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE44" s="13" t="s">
         <v>299</v>
       </c>
       <c r="AF44" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG44" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH44" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI44" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG44" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH44" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -6053,60 +6053,60 @@
       <c r="P45" t="s">
         <v>250</v>
       </c>
-      <c r="R45" s="9" t="s">
+      <c r="Q45" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S45" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="T45" s="9" t="s">
+      <c r="R45" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="S45" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U45" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="V45" s="11" t="s">
-        <v>175</v>
+      <c r="T45" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="U45" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V45" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="W45" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X45" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y45" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z45" s="10">
-        <v>2001</v>
-      </c>
-      <c r="AA45" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB45" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y45" s="10">
+        <v>2001</v>
+      </c>
+      <c r="Z45" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA45" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC45" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD45" s="10"/>
+      <c r="AB45" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE45" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF45" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG45" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH45" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI45" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG45" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH45" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -6155,60 +6155,60 @@
       <c r="P46" t="s">
         <v>251</v>
       </c>
-      <c r="R46" s="9" t="s">
+      <c r="Q46" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S46" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="T46" s="9" t="s">
+      <c r="R46" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="S46" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U46" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="V46" s="11" t="s">
-        <v>175</v>
+      <c r="T46" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="U46" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V46" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="W46" s="13" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X46" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y46" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z46" s="13">
-        <v>2001</v>
-      </c>
-      <c r="AA46" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB46" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y46" s="13">
+        <v>2001</v>
+      </c>
+      <c r="Z46" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA46" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC46" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD46" s="13"/>
+      <c r="AB46" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC46" s="13"/>
+      <c r="AD46" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE46" s="13" t="s">
         <v>299</v>
       </c>
       <c r="AF46" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG46" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH46" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI46" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG46" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH46" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -6257,60 +6257,60 @@
       <c r="P47" t="s">
         <v>252</v>
       </c>
-      <c r="R47" s="9" t="s">
+      <c r="Q47" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S47" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="T47" s="9" t="s">
+      <c r="R47" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="S47" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U47" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="V47" s="11" t="s">
-        <v>175</v>
+      <c r="T47" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="U47" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V47" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="W47" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X47" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y47" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z47" s="10">
-        <v>2001</v>
-      </c>
-      <c r="AA47" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB47" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y47" s="10">
+        <v>2001</v>
+      </c>
+      <c r="Z47" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA47" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC47" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD47" s="10"/>
+      <c r="AB47" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE47" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF47" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG47" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH47" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI47" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG47" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH47" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>65</v>
       </c>
@@ -6359,60 +6359,60 @@
       <c r="P48" t="s">
         <v>253</v>
       </c>
-      <c r="R48" s="9" t="s">
+      <c r="Q48" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S48" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="T48" s="9" t="s">
+      <c r="R48" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="S48" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U48" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="V48" s="11" t="s">
-        <v>175</v>
+      <c r="T48" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="U48" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V48" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="W48" s="13" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X48" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y48" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z48" s="13">
-        <v>2001</v>
-      </c>
-      <c r="AA48" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB48" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y48" s="13">
+        <v>2001</v>
+      </c>
+      <c r="Z48" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA48" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC48" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD48" s="13"/>
+      <c r="AB48" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC48" s="13"/>
+      <c r="AD48" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE48" s="13" t="s">
         <v>299</v>
       </c>
       <c r="AF48" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG48" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH48" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI48" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG48" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH48" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -6461,60 +6461,60 @@
       <c r="P49" t="s">
         <v>254</v>
       </c>
-      <c r="R49" s="9" t="s">
+      <c r="Q49" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S49" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="T49" s="9" t="s">
+      <c r="R49" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="S49" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U49" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="V49" s="11" t="s">
-        <v>175</v>
+      <c r="T49" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="U49" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V49" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="W49" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X49" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y49" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z49" s="10">
-        <v>2001</v>
-      </c>
-      <c r="AA49" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB49" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y49" s="10">
+        <v>2001</v>
+      </c>
+      <c r="Z49" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA49" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC49" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD49" s="10"/>
+      <c r="AB49" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE49" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF49" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG49" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH49" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI49" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG49" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH49" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -6563,60 +6563,60 @@
       <c r="P50" t="s">
         <v>255</v>
       </c>
-      <c r="R50" s="9" t="s">
+      <c r="Q50" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S50" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="T50" s="9" t="s">
+      <c r="R50" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="S50" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U50" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="V50" s="11" t="s">
-        <v>175</v>
+      <c r="T50" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="U50" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V50" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="W50" s="13" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X50" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y50" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z50" s="13">
-        <v>2001</v>
-      </c>
-      <c r="AA50" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB50" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y50" s="13">
+        <v>2001</v>
+      </c>
+      <c r="Z50" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA50" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC50" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD50" s="13"/>
+      <c r="AB50" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC50" s="13"/>
+      <c r="AD50" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE50" s="13" t="s">
         <v>299</v>
       </c>
       <c r="AF50" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG50" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH50" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI50" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG50" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH50" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -6665,60 +6665,60 @@
       <c r="P51" t="s">
         <v>256</v>
       </c>
-      <c r="R51" s="9" t="s">
+      <c r="Q51" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S51" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="T51" s="9" t="s">
+      <c r="R51" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="S51" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U51" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="V51" s="11" t="s">
-        <v>175</v>
+      <c r="T51" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="U51" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V51" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="W51" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X51" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y51" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z51" s="10">
-        <v>2001</v>
-      </c>
-      <c r="AA51" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB51" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y51" s="10">
+        <v>2001</v>
+      </c>
+      <c r="Z51" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA51" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC51" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD51" s="10"/>
+      <c r="AB51" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC51" s="10"/>
+      <c r="AD51" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE51" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF51" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG51" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH51" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI51" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG51" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH51" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>69</v>
       </c>
@@ -6767,60 +6767,60 @@
       <c r="P52" t="s">
         <v>257</v>
       </c>
-      <c r="R52" s="9" t="s">
+      <c r="Q52" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S52" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="T52" s="9" t="s">
+      <c r="R52" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="S52" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U52" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="V52" s="11" t="s">
-        <v>175</v>
+      <c r="T52" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="U52" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V52" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="W52" s="13" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X52" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y52" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z52" s="13">
-        <v>2001</v>
-      </c>
-      <c r="AA52" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB52" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y52" s="13">
+        <v>2001</v>
+      </c>
+      <c r="Z52" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA52" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC52" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD52" s="13"/>
+      <c r="AB52" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC52" s="13"/>
+      <c r="AD52" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE52" s="13" t="s">
         <v>299</v>
       </c>
       <c r="AF52" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG52" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH52" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI52" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG52" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH52" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -6869,60 +6869,60 @@
       <c r="P53" t="s">
         <v>258</v>
       </c>
-      <c r="R53" s="9" t="s">
+      <c r="Q53" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S53" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="T53" s="9" t="s">
+      <c r="R53" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="S53" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U53" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="V53" s="11" t="s">
-        <v>175</v>
+      <c r="T53" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="U53" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V53" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="W53" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X53" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y53" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z53" s="10">
-        <v>2001</v>
-      </c>
-      <c r="AA53" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB53" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y53" s="10">
+        <v>2001</v>
+      </c>
+      <c r="Z53" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA53" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC53" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD53" s="10"/>
+      <c r="AB53" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC53" s="10"/>
+      <c r="AD53" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE53" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF53" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG53" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH53" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI53" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG53" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH53" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -6971,60 +6971,60 @@
       <c r="P54" t="s">
         <v>259</v>
       </c>
-      <c r="R54" s="9" t="s">
+      <c r="Q54" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S54" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="T54" s="9" t="s">
+      <c r="R54" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="S54" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U54" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="V54" s="11" t="s">
-        <v>175</v>
+      <c r="T54" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="U54" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V54" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="W54" s="13" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X54" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y54" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z54" s="13">
-        <v>2001</v>
-      </c>
-      <c r="AA54" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB54" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y54" s="13">
+        <v>2001</v>
+      </c>
+      <c r="Z54" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA54" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC54" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD54" s="13"/>
+      <c r="AB54" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC54" s="13"/>
+      <c r="AD54" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE54" s="13" t="s">
         <v>299</v>
       </c>
       <c r="AF54" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG54" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH54" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI54" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG54" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH54" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>72</v>
       </c>
@@ -7073,60 +7073,60 @@
       <c r="P55" t="s">
         <v>260</v>
       </c>
-      <c r="R55" s="9" t="s">
+      <c r="Q55" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S55" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="T55" s="9" t="s">
+      <c r="R55" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="S55" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U55" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="V55" s="11" t="s">
-        <v>175</v>
+      <c r="T55" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="U55" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V55" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="W55" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X55" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y55" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z55" s="10">
-        <v>2001</v>
-      </c>
-      <c r="AA55" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB55" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y55" s="10">
+        <v>2001</v>
+      </c>
+      <c r="Z55" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA55" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC55" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD55" s="10"/>
+      <c r="AB55" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC55" s="10"/>
+      <c r="AD55" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE55" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF55" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG55" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH55" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG55" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH55" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>73</v>
       </c>
@@ -7175,60 +7175,60 @@
       <c r="P56" t="s">
         <v>261</v>
       </c>
-      <c r="R56" s="9" t="s">
+      <c r="Q56" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S56" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="T56" s="9" t="s">
+      <c r="R56" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="S56" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U56" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="V56" s="11" t="s">
-        <v>175</v>
+      <c r="T56" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="U56" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V56" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="W56" s="13" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X56" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y56" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z56" s="13">
-        <v>2001</v>
-      </c>
-      <c r="AA56" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB56" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y56" s="13">
+        <v>2001</v>
+      </c>
+      <c r="Z56" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA56" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC56" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD56" s="13"/>
+      <c r="AB56" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC56" s="13"/>
+      <c r="AD56" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE56" s="13" t="s">
         <v>299</v>
       </c>
       <c r="AF56" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG56" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH56" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI56" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG56" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH56" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -7277,60 +7277,60 @@
       <c r="P57" t="s">
         <v>262</v>
       </c>
-      <c r="R57" s="9" t="s">
+      <c r="Q57" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S57" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="T57" s="9" t="s">
+      <c r="R57" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="S57" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U57" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="V57" s="11" t="s">
-        <v>175</v>
+      <c r="T57" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="U57" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V57" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="W57" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X57" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y57" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z57" s="10">
-        <v>2001</v>
-      </c>
-      <c r="AA57" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB57" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y57" s="10">
+        <v>2001</v>
+      </c>
+      <c r="Z57" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA57" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC57" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD57" s="10"/>
+      <c r="AB57" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC57" s="10"/>
+      <c r="AD57" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE57" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF57" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG57" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH57" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI57" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG57" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH57" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>75</v>
       </c>
@@ -7379,60 +7379,60 @@
       <c r="P58" t="s">
         <v>263</v>
       </c>
-      <c r="R58" s="9" t="s">
+      <c r="Q58" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S58" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="T58" s="9" t="s">
+      <c r="R58" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="S58" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U58" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="V58" s="11" t="s">
-        <v>175</v>
+      <c r="T58" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="U58" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V58" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="W58" s="13" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X58" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y58" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z58" s="13">
-        <v>2001</v>
-      </c>
-      <c r="AA58" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB58" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y58" s="13">
+        <v>2001</v>
+      </c>
+      <c r="Z58" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA58" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC58" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD58" s="13"/>
+      <c r="AB58" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC58" s="13"/>
+      <c r="AD58" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE58" s="13" t="s">
         <v>299</v>
       </c>
       <c r="AF58" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG58" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH58" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI58" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG58" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH58" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>76</v>
       </c>
@@ -7481,60 +7481,60 @@
       <c r="P59" t="s">
         <v>264</v>
       </c>
-      <c r="R59" s="9" t="s">
+      <c r="Q59" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S59" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="T59" s="9" t="s">
+      <c r="R59" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="S59" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U59" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="V59" s="11" t="s">
-        <v>175</v>
+      <c r="T59" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="U59" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V59" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="W59" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X59" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y59" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z59" s="10">
-        <v>2001</v>
-      </c>
-      <c r="AA59" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB59" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y59" s="10">
+        <v>2001</v>
+      </c>
+      <c r="Z59" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA59" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC59" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD59" s="10"/>
+      <c r="AB59" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC59" s="10"/>
+      <c r="AD59" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE59" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF59" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG59" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH59" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI59" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG59" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH59" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -7583,60 +7583,60 @@
       <c r="P60" t="s">
         <v>265</v>
       </c>
-      <c r="R60" s="9" t="s">
+      <c r="Q60" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S60" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="T60" s="9" t="s">
+      <c r="R60" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="S60" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="U60" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="V60" s="11" t="s">
-        <v>175</v>
+      <c r="T60" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="U60" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V60" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="W60" s="13" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X60" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y60" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z60" s="13">
-        <v>2001</v>
-      </c>
-      <c r="AA60" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB60" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y60" s="13">
+        <v>2001</v>
+      </c>
+      <c r="Z60" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA60" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC60" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD60" s="13"/>
+      <c r="AB60" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC60" s="13"/>
+      <c r="AD60" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE60" s="13" t="s">
         <v>299</v>
       </c>
       <c r="AF60" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG60" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH60" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI60" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG60" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH60" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -7685,60 +7685,60 @@
       <c r="P61" t="s">
         <v>266</v>
       </c>
+      <c r="Q61" s="10" t="s">
+        <v>179</v>
+      </c>
       <c r="R61" s="10" t="s">
-        <v>179</v>
+        <v>312</v>
       </c>
       <c r="S61" s="10" t="s">
-        <v>312</v>
+        <v>182</v>
       </c>
       <c r="T61" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="U61" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="V61" s="11" t="s">
-        <v>175</v>
+        <v>312</v>
+      </c>
+      <c r="U61" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V61" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="W61" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X61" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y61" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z61" s="15">
-        <v>2001</v>
-      </c>
-      <c r="AA61" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y61" s="15">
+        <v>2001</v>
+      </c>
+      <c r="Z61" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="AB61" s="9" t="s">
+      <c r="AA61" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC61" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD61" s="10"/>
+      <c r="AB61" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC61" s="10"/>
+      <c r="AD61" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE61" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="AF61" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG61" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH61" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="AI61" t="s">
+      <c r="AF61" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG61" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="AH61" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -7787,60 +7787,60 @@
       <c r="P62" t="s">
         <v>267</v>
       </c>
+      <c r="Q62" s="13" t="s">
+        <v>179</v>
+      </c>
       <c r="R62" s="13" t="s">
-        <v>179</v>
+        <v>312</v>
       </c>
       <c r="S62" s="13" t="s">
-        <v>312</v>
+        <v>182</v>
       </c>
       <c r="T62" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="U62" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="V62" s="11" t="s">
-        <v>175</v>
+        <v>312</v>
+      </c>
+      <c r="U62" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V62" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="W62" s="13" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X62" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y62" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z62" s="15">
-        <v>2001</v>
-      </c>
-      <c r="AA62" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y62" s="15">
+        <v>2001</v>
+      </c>
+      <c r="Z62" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="AB62" s="9" t="s">
+      <c r="AA62" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC62" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD62" s="13"/>
+      <c r="AB62" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC62" s="13"/>
+      <c r="AD62" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE62" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="AF62" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG62" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH62" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="AI62" t="s">
+      <c r="AF62" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG62" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="AH62" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>80</v>
       </c>
@@ -7889,60 +7889,60 @@
       <c r="P63" t="s">
         <v>266</v>
       </c>
+      <c r="Q63" s="10" t="s">
+        <v>179</v>
+      </c>
       <c r="R63" s="10" t="s">
-        <v>179</v>
+        <v>312</v>
       </c>
       <c r="S63" s="10" t="s">
-        <v>312</v>
+        <v>182</v>
       </c>
       <c r="T63" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="U63" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="V63" s="11" t="s">
-        <v>175</v>
+        <v>312</v>
+      </c>
+      <c r="U63" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V63" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="W63" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X63" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y63" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z63" s="15">
-        <v>2001</v>
-      </c>
-      <c r="AA63" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y63" s="15">
+        <v>2001</v>
+      </c>
+      <c r="Z63" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="AB63" s="9" t="s">
+      <c r="AA63" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC63" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD63" s="10"/>
+      <c r="AB63" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC63" s="10"/>
+      <c r="AD63" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE63" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="AF63" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG63" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH63" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="AI63" t="s">
+      <c r="AF63" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG63" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="AH63" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>81</v>
       </c>
@@ -7991,60 +7991,60 @@
       <c r="P64" t="s">
         <v>267</v>
       </c>
+      <c r="Q64" s="13" t="s">
+        <v>179</v>
+      </c>
       <c r="R64" s="13" t="s">
-        <v>179</v>
+        <v>312</v>
       </c>
       <c r="S64" s="13" t="s">
-        <v>312</v>
+        <v>182</v>
       </c>
       <c r="T64" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="U64" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="V64" s="11" t="s">
-        <v>175</v>
+        <v>312</v>
+      </c>
+      <c r="U64" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V64" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="W64" s="13" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X64" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y64" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z64" s="15">
-        <v>2001</v>
-      </c>
-      <c r="AA64" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y64" s="15">
+        <v>2001</v>
+      </c>
+      <c r="Z64" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="AB64" s="9" t="s">
+      <c r="AA64" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC64" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD64" s="13"/>
+      <c r="AB64" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC64" s="13"/>
+      <c r="AD64" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE64" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="AF64" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG64" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH64" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="AI64" t="s">
+      <c r="AF64" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG64" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="AH64" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -8093,60 +8093,60 @@
       <c r="P65" t="s">
         <v>268</v>
       </c>
+      <c r="Q65" s="10" t="s">
+        <v>179</v>
+      </c>
       <c r="R65" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="S65" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="T65" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="S65" s="15" t="s">
         <v>301</v>
       </c>
+      <c r="T65" s="10" t="s">
+        <v>313</v>
+      </c>
       <c r="U65" s="10" t="s">
-        <v>313</v>
+        <v>186</v>
       </c>
       <c r="V65" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="W65" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="W65" s="10" t="s">
-        <v>312</v>
-      </c>
       <c r="X65" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y65" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z65" s="10">
+        <v>312</v>
+      </c>
+      <c r="Y65" s="10">
         <v>2008</v>
       </c>
-      <c r="AA65" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB65" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC65" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="AD65" s="10"/>
+      <c r="Z65" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA65" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB65" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="AC65" s="10"/>
+      <c r="AD65" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE65" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF65" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG65" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="AH65" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI65" t="s">
+      <c r="AG65" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH65" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>83</v>
       </c>
@@ -8195,60 +8195,60 @@
       <c r="P66" t="s">
         <v>269</v>
       </c>
+      <c r="Q66" s="13" t="s">
+        <v>179</v>
+      </c>
       <c r="R66" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="S66" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="T66" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="S66" s="15" t="s">
         <v>303</v>
       </c>
+      <c r="T66" s="13" t="s">
+        <v>313</v>
+      </c>
       <c r="U66" s="13" t="s">
-        <v>313</v>
+        <v>187</v>
       </c>
       <c r="V66" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="W66" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="W66" s="13" t="s">
-        <v>312</v>
-      </c>
       <c r="X66" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y66" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z66" s="13">
+        <v>312</v>
+      </c>
+      <c r="Y66" s="13">
         <v>2009</v>
       </c>
-      <c r="AA66" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB66" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC66" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AD66" s="13"/>
+      <c r="Z66" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA66" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB66" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="AC66" s="13"/>
+      <c r="AD66" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE66" s="13" t="s">
         <v>299</v>
       </c>
       <c r="AF66" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG66" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="AH66" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI66" t="s">
+      <c r="AG66" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH66" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>84</v>
       </c>
@@ -8297,57 +8297,57 @@
       <c r="P67" t="s">
         <v>270</v>
       </c>
-      <c r="R67" s="9" t="s">
+      <c r="Q67" s="9" t="s">
         <v>308</v>
       </c>
+      <c r="R67" s="10" t="s">
+        <v>311</v>
+      </c>
       <c r="S67" s="10" t="s">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="T67" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="U67" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="V67" s="9">
-        <v>2001</v>
-      </c>
-      <c r="W67" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="X67" s="9">
-        <v>2001</v>
-      </c>
-      <c r="Y67" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z67" s="15">
-        <v>2001</v>
-      </c>
-      <c r="AA67" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="U67" s="9">
+        <v>2001</v>
+      </c>
+      <c r="V67" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="W67" s="9">
+        <v>2001</v>
+      </c>
+      <c r="X67" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y67" s="15">
+        <v>2001</v>
+      </c>
+      <c r="Z67" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="AB67" s="9" t="s">
+      <c r="AA67" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="AC67" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD67" s="10"/>
+      <c r="AB67" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC67" s="10"/>
+      <c r="AD67" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE67" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF67" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG67" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="AH67" s="12" t="s">
+      <c r="AG67" s="12" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>85</v>
       </c>
@@ -8396,57 +8396,57 @@
       <c r="P68" t="s">
         <v>271</v>
       </c>
-      <c r="R68" s="9" t="s">
+      <c r="Q68" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S68" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="T68" s="9" t="s">
+      <c r="R68" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="S68" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="U68" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="V68" s="9">
+      <c r="T68" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="U68" s="9">
         <v>1999</v>
       </c>
-      <c r="W68" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="X68" s="9">
+      <c r="V68" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="W68" s="9">
         <v>1999</v>
       </c>
-      <c r="Y68" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z68" s="15">
+      <c r="X68" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y68" s="15">
         <v>1999</v>
       </c>
-      <c r="AA68" s="13" t="s">
+      <c r="Z68" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="AB68" s="9" t="s">
+      <c r="AA68" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="AC68" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD68" s="13"/>
+      <c r="AB68" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC68" s="13"/>
+      <c r="AD68" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE68" s="13" t="s">
         <v>299</v>
       </c>
       <c r="AF68" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG68" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="AH68" s="14" t="s">
+      <c r="AG68" s="14" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>86</v>
       </c>
@@ -8495,57 +8495,57 @@
       <c r="P69" t="s">
         <v>272</v>
       </c>
-      <c r="R69" s="9" t="s">
+      <c r="Q69" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S69" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="T69" s="9" t="s">
+      <c r="R69" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="S69" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="U69" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="V69" s="9">
-        <v>2001</v>
-      </c>
-      <c r="W69" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="X69" s="9">
-        <v>2001</v>
-      </c>
-      <c r="Y69" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z69" s="15">
-        <v>2001</v>
-      </c>
-      <c r="AA69" s="10" t="s">
+      <c r="T69" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="U69" s="9">
+        <v>2001</v>
+      </c>
+      <c r="V69" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="W69" s="9">
+        <v>2001</v>
+      </c>
+      <c r="X69" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y69" s="15">
+        <v>2001</v>
+      </c>
+      <c r="Z69" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="AB69" s="9" t="s">
+      <c r="AA69" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC69" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD69" s="10"/>
+      <c r="AB69" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC69" s="10"/>
+      <c r="AD69" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE69" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF69" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG69" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="AH69" s="12" t="s">
+      <c r="AG69" s="12" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>87</v>
       </c>
@@ -8594,57 +8594,57 @@
       <c r="P70" t="s">
         <v>273</v>
       </c>
-      <c r="R70" s="9" t="s">
+      <c r="Q70" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S70" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="T70" s="9" t="s">
+      <c r="R70" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="S70" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="U70" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="V70" s="9">
+      <c r="T70" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="U70" s="9">
         <v>1994</v>
       </c>
-      <c r="W70" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="X70" s="9">
+      <c r="V70" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="W70" s="9">
         <v>1994</v>
       </c>
-      <c r="Y70" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z70" s="15">
+      <c r="X70" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y70" s="15">
         <v>1994</v>
       </c>
-      <c r="AA70" s="13" t="s">
+      <c r="Z70" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="AB70" s="9" t="s">
+      <c r="AA70" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC70" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD70" s="13"/>
+      <c r="AB70" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC70" s="13"/>
+      <c r="AD70" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE70" s="13" t="s">
         <v>299</v>
       </c>
       <c r="AF70" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG70" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="AH70" s="14" t="s">
+      <c r="AG70" s="14" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>88</v>
       </c>
@@ -8693,57 +8693,57 @@
       <c r="P71" t="s">
         <v>274</v>
       </c>
-      <c r="R71" s="9" t="s">
+      <c r="Q71" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S71" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="T71" s="9" t="s">
+      <c r="R71" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="S71" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="U71" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="V71" s="9">
+      <c r="T71" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="U71" s="9">
         <v>1994</v>
       </c>
-      <c r="W71" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="X71" s="9">
+      <c r="V71" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="W71" s="9">
         <v>1994</v>
       </c>
-      <c r="Y71" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z71" s="15">
+      <c r="X71" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y71" s="15">
         <v>1994</v>
       </c>
-      <c r="AA71" s="10" t="s">
+      <c r="Z71" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="AB71" s="9" t="s">
+      <c r="AA71" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC71" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD71" s="10"/>
+      <c r="AB71" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC71" s="10"/>
+      <c r="AD71" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE71" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF71" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG71" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="AH71" s="12" t="s">
+      <c r="AG71" s="12" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>89</v>
       </c>
@@ -8792,57 +8792,57 @@
       <c r="P72" t="s">
         <v>275</v>
       </c>
-      <c r="R72" s="9" t="s">
+      <c r="Q72" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="S72" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="T72" s="9" t="s">
+      <c r="R72" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="S72" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="U72" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="V72" s="9">
+      <c r="T72" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="U72" s="9">
         <v>1994</v>
       </c>
-      <c r="W72" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="X72" s="9">
+      <c r="V72" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="W72" s="9">
         <v>1994</v>
       </c>
-      <c r="Y72" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z72" s="15">
+      <c r="X72" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y72" s="15">
         <v>1994</v>
       </c>
-      <c r="AA72" s="13" t="s">
+      <c r="Z72" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="AB72" s="9" t="s">
+      <c r="AA72" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="AC72" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD72" s="13"/>
+      <c r="AB72" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC72" s="13"/>
+      <c r="AD72" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE72" s="13" t="s">
         <v>299</v>
       </c>
       <c r="AF72" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG72" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="AH72" s="14" t="s">
+      <c r="AG72" s="14" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>90</v>
       </c>
@@ -8891,60 +8891,60 @@
       <c r="P73" t="s">
         <v>276</v>
       </c>
+      <c r="Q73" s="10" t="s">
+        <v>180</v>
+      </c>
       <c r="R73" s="10" t="s">
-        <v>180</v>
+        <v>312</v>
       </c>
       <c r="S73" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="T73" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="U73" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="V73" s="11" t="s">
-        <v>175</v>
+        <v>312</v>
+      </c>
+      <c r="U73" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V73" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="W73" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X73" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y73" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z73" s="15">
+        <v>312</v>
+      </c>
+      <c r="Y73" s="15">
         <v>1991</v>
       </c>
+      <c r="Z73" s="10" t="s">
+        <v>313</v>
+      </c>
       <c r="AA73" s="10" t="s">
-        <v>313</v>
+        <v>201</v>
       </c>
       <c r="AB73" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC73" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="AD73" s="10"/>
+        <v>312</v>
+      </c>
+      <c r="AC73" s="10"/>
+      <c r="AD73" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE73" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF73" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG73" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="AH73" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI73" t="s">
+      <c r="AG73" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH73" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>91</v>
       </c>
@@ -8993,60 +8993,60 @@
       <c r="P74" t="s">
         <v>277</v>
       </c>
+      <c r="Q74" s="13" t="s">
+        <v>180</v>
+      </c>
       <c r="R74" s="13" t="s">
-        <v>180</v>
+        <v>312</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="U74" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="V74" s="11" t="s">
-        <v>175</v>
+        <v>312</v>
+      </c>
+      <c r="U74" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V74" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y74" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z74" s="15">
+        <v>312</v>
+      </c>
+      <c r="Y74" s="15">
         <v>1991</v>
       </c>
+      <c r="Z74" s="13" t="s">
+        <v>313</v>
+      </c>
       <c r="AA74" s="13" t="s">
-        <v>313</v>
+        <v>201</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC74" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AD74" s="13"/>
+        <v>312</v>
+      </c>
+      <c r="AC74" s="13"/>
+      <c r="AD74" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE74" s="13" t="s">
         <v>299</v>
       </c>
       <c r="AF74" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG74" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="AH74" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI74" t="s">
+      <c r="AG74" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH74" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>92</v>
       </c>
@@ -9095,57 +9095,57 @@
       <c r="P75" t="s">
         <v>278</v>
       </c>
+      <c r="Q75" s="10" t="s">
+        <v>179</v>
+      </c>
       <c r="R75" s="10" t="s">
-        <v>179</v>
+        <v>312</v>
       </c>
       <c r="S75" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="T75" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="U75" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="V75" s="11" t="s">
-        <v>175</v>
+        <v>312</v>
+      </c>
+      <c r="U75" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V75" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="W75" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X75" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y75" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z75" s="10">
+        <v>312</v>
+      </c>
+      <c r="Y75" s="10">
         <v>2013</v>
       </c>
+      <c r="Z75" s="10" t="s">
+        <v>312</v>
+      </c>
       <c r="AA75" s="10" t="s">
-        <v>312</v>
+        <v>202</v>
       </c>
       <c r="AB75" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="AC75" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="AD75" s="10"/>
+        <v>312</v>
+      </c>
+      <c r="AC75" s="10"/>
+      <c r="AD75" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE75" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF75" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG75" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="AH75" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG75" s="12" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>93</v>
       </c>
@@ -9194,60 +9194,60 @@
       <c r="P76" t="s">
         <v>279</v>
       </c>
+      <c r="Q76" s="13" t="s">
+        <v>181</v>
+      </c>
       <c r="R76" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="S76" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="T76" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="S76" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="U76" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="V76" s="11" t="s">
-        <v>175</v>
+      <c r="T76" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="U76" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V76" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="W76" s="13" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X76" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y76" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z76" s="13">
+        <v>312</v>
+      </c>
+      <c r="Y76" s="13">
         <v>2014</v>
       </c>
+      <c r="Z76" s="13" t="s">
+        <v>312</v>
+      </c>
       <c r="AA76" s="13" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="AB76" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC76" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AD76" s="13"/>
+        <v>312</v>
+      </c>
+      <c r="AC76" s="13"/>
+      <c r="AD76" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE76" s="13" t="s">
         <v>299</v>
       </c>
       <c r="AF76" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG76" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="AH76" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI76" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG76" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH76" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>94</v>
       </c>
@@ -9296,60 +9296,60 @@
       <c r="P77" t="s">
         <v>280</v>
       </c>
+      <c r="Q77" s="10" t="s">
+        <v>181</v>
+      </c>
       <c r="R77" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="S77" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="T77" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="S77" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="U77" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="V77" s="11" t="s">
-        <v>175</v>
+      <c r="T77" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="U77" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V77" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="W77" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="X77" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y77" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z77" s="10">
+        <v>312</v>
+      </c>
+      <c r="Y77" s="10">
         <v>2014</v>
       </c>
+      <c r="Z77" s="10" t="s">
+        <v>312</v>
+      </c>
       <c r="AA77" s="10" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="AB77" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC77" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="AD77" s="10"/>
+        <v>312</v>
+      </c>
+      <c r="AC77" s="10"/>
+      <c r="AD77" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="AE77" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AF77" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG77" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="AH77" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI77" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG77" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH77" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>95</v>
       </c>
@@ -9398,58 +9398,58 @@
       <c r="P78" t="s">
         <v>281</v>
       </c>
+      <c r="Q78" s="17" t="s">
+        <v>179</v>
+      </c>
       <c r="R78" s="17" t="s">
-        <v>179</v>
+        <v>312</v>
       </c>
       <c r="S78" s="17" t="s">
-        <v>312</v>
+        <v>185</v>
       </c>
       <c r="T78" s="17" t="s">
-        <v>185</v>
+        <v>312</v>
       </c>
       <c r="U78" s="17" t="s">
-        <v>312</v>
+        <v>188</v>
       </c>
       <c r="V78" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="W78" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="W78" s="17" t="s">
-        <v>312</v>
-      </c>
       <c r="X78" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y78" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z78" s="17">
+        <v>312</v>
+      </c>
+      <c r="Y78" s="17">
         <v>2013</v>
       </c>
-      <c r="AA78" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB78" s="18" t="s">
+      <c r="Z78" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA78" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="AC78" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD78" s="17"/>
+      <c r="AB78" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC78" s="17"/>
+      <c r="AD78" s="17" t="s">
+        <v>299</v>
+      </c>
       <c r="AE78" s="17" t="s">
         <v>299</v>
       </c>
       <c r="AF78" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG78" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="AH78" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG78" s="4" t="s">
         <v>312</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="S1:S1048576 U1:U1048576 W1:W1048576 Y1:Y66 Y73:Y1048576 AA1:AA1048576 AC1:AC1048576 AH1:AH1048576">
+  <conditionalFormatting sqref="R1:R1048576 T1:T1048576 V1:V1048576 X1:X66 X73:X1048576 Z1:Z1048576 AB1:AB1048576 AG1:AG1048576">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"updated"</formula>
     </cfRule>
@@ -9457,7 +9457,7 @@
       <formula>"filled in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y67:Y72">
+  <conditionalFormatting sqref="X67:X72">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"updated"</formula>
     </cfRule>
